--- a/data/trans_media/Q23-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23-Edad-trans_media.xlsx
@@ -639,22 +639,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,39; 15,93</t>
+          <t>15,38; 15,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,43; 15,92</t>
+          <t>15,42; 15,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,51; 16,1</t>
+          <t>15,54; 16,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 15,59</t>
+          <t>14,95; 15,56</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -664,7 +664,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,27; 15,67</t>
+          <t>15,28; 15,68</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,65</t>
+          <t>16,26; 16,69</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,37; 16,88</t>
+          <t>16,35; 16,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,52; 17,09</t>
+          <t>16,51; 17,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,3</t>
+          <t>16,71; 17,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,42; 16,79</t>
+          <t>16,41; 16,77</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,59; 16,98</t>
+          <t>16,57; 16,98</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 17,2</t>
+          <t>16,39; 17,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,47; 17,11</t>
+          <t>16,46; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,61</t>
+          <t>16,8; 17,59</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,88; 17,62</t>
+          <t>16,89; 17,62</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,22</t>
+          <t>16,65; 17,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,23</t>
+          <t>16,74; 17,21</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,95; 16,57</t>
+          <t>15,96; 16,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,74</t>
+          <t>16,07; 16,73</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,57; 18,65</t>
+          <t>17,58; 18,73</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,41; 18,45</t>
+          <t>17,39; 18,5</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,66; 17,2</t>
+          <t>16,65; 17,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,73; 17,32</t>
+          <t>16,71; 17,32</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,89; 16,73</t>
+          <t>15,92; 16,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,18; 17,2</t>
+          <t>16,15; 17,14</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,15; 23,98</t>
+          <t>20,26; 24,12</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,91; 21,39</t>
+          <t>18,92; 21,36</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,92; 18,06</t>
+          <t>16,93; 18,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,09; 18,13</t>
+          <t>17,1; 18,2</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,86; 16,98</t>
+          <t>15,78; 16,87</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 16,73</t>
+          <t>15,92; 16,79</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>19,63; 29,01</t>
+          <t>20,14; 29,33</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,88; 33,01</t>
+          <t>24,74; 33,67</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,92</t>
+          <t>16,46; 17,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,8; 18,25</t>
+          <t>16,88; 18,24</t>
         </is>
       </c>
     </row>
@@ -1119,22 +1119,22 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,19; 16,5</t>
+          <t>16,2; 16,49</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,31; 16,61</t>
+          <t>16,32; 16,61</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,75</t>
+          <t>17,21; 17,78</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,38; 17,95</t>
+          <t>17,4; 17,96</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,06</t>
+          <t>16,79; 17,08</t>
         </is>
       </c>
     </row>

--- a/data/trans_media/Q23-Edad-trans_media.xlsx
+++ b/data/trans_media/Q23-Edad-trans_media.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>15,38; 15,92</t>
+          <t>15,38; 15,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,42; 15,92</t>
+          <t>15,42; 15,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 16,09</t>
+          <t>15,53; 16,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>14,95; 15,56</t>
+          <t>14,95; 15,57</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>15,54; 15,92</t>
+          <t>15,54; 15,93</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>15,28; 15,68</t>
+          <t>15,29; 15,7</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,69</t>
+          <t>16,27; 16,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 16,88</t>
+          <t>16,38; 16,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>16,51; 17,11</t>
+          <t>16,49; 17,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,34</t>
+          <t>16,66; 17,29</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>16,41; 16,77</t>
+          <t>16,43; 16,78</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>16,57; 16,98</t>
+          <t>16,58; 16,98</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>16,39; 17,09</t>
+          <t>16,39; 17,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,08</t>
+          <t>16,45; 17,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,8; 17,59</t>
+          <t>16,78; 17,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>16,89; 17,62</t>
+          <t>16,9; 17,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,21</t>
+          <t>16,68; 17,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,74; 17,21</t>
+          <t>16,71; 17,2</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,96; 16,53</t>
+          <t>15,98; 16,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>16,07; 16,73</t>
+          <t>16,06; 16,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,73</t>
+          <t>17,53; 18,71</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 18,5</t>
+          <t>17,43; 18,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>16,65; 17,23</t>
+          <t>16,69; 17,25</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>16,71; 17,32</t>
+          <t>16,74; 17,35</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,77</t>
+          <t>15,9; 16,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>16,15; 17,14</t>
+          <t>16,16; 17,18</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20,26; 24,12</t>
+          <t>20,08; 23,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,92; 21,36</t>
+          <t>19,0; 21,4</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>16,93; 18,13</t>
+          <t>16,89; 18,05</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,1; 18,2</t>
+          <t>17,17; 18,18</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,78; 16,87</t>
+          <t>15,85; 16,84</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>15,92; 16,79</t>
+          <t>15,93; 16,8</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>20,14; 29,33</t>
+          <t>20,1; 29,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>24,74; 33,67</t>
+          <t>24,39; 33,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>16,46; 17,85</t>
+          <t>16,44; 17,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>16,88; 18,24</t>
+          <t>16,87; 18,24</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1119,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>16,2; 16,49</t>
+          <t>16,2; 16,5</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,61</t>
+          <t>16,33; 16,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,78</t>
+          <t>17,21; 17,76</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>17,4; 17,96</t>
+          <t>17,4; 17,94</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,62; 16,89</t>
+          <t>16,63; 16,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>16,79; 17,08</t>
+          <t>16,78; 17,06</t>
         </is>
       </c>
     </row>
